--- a/src/com/SpiceTG/TestDataFiles/testNData.xlsx
+++ b/src/com/SpiceTG/TestDataFiles/testNData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7980"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="28">
   <si>
     <t>Username</t>
   </si>
@@ -72,29 +72,41 @@
     <t>Fail</t>
   </si>
   <si>
-    <t>Testdn@leo.net</t>
-  </si>
-  <si>
-    <t>Mahesdn@leo.net</t>
-  </si>
-  <si>
-    <t>Aniladn@leotechnosoft.net</t>
-  </si>
-  <si>
-    <t>Madandn@leotechnosoft.net</t>
-  </si>
-  <si>
     <t>leo_1</t>
   </si>
   <si>
     <t>UpdateStatus</t>
+  </si>
+  <si>
+    <t>leo_123</t>
+  </si>
+  <si>
+    <t>mark@leotechnosoft.net</t>
+  </si>
+  <si>
+    <t>AnilT@leotechnosoft.net</t>
+  </si>
+  <si>
+    <t>Nalini@leotechnosoft.net</t>
+  </si>
+  <si>
+    <t>Neel@leo.net</t>
+  </si>
+  <si>
+    <t>Veeresh@leo.net</t>
+  </si>
+  <si>
+    <t>neel.sharma@spicetg.com</t>
+  </si>
+  <si>
+    <t>spice_12345</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -110,16 +122,30 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -142,23 +168,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -168,9 +183,10 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -469,7 +485,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" activeCellId="1" sqref="F2 B16"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -484,23 +500,208 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1"/>
+    <hyperlink ref="A4" r:id="rId2"/>
+    <hyperlink ref="A5" r:id="rId3"/>
+    <hyperlink ref="A6" r:id="rId4"/>
+    <hyperlink ref="A7" r:id="rId5"/>
+    <hyperlink ref="A3" r:id="rId6"/>
+    <hyperlink ref="A8" r:id="rId7"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId8"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="4" t="s">
-        <v>23</v>
+      <c r="F1" s="6" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -508,7 +709,7 @@
         <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>7</v>
@@ -545,11 +746,9 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>6</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="B4" s="1"/>
       <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
@@ -565,7 +764,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>6</v>
@@ -585,10 +784,10 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>8</v>
@@ -605,7 +804,7 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="3" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>6</v>
@@ -625,10 +824,10 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="3" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>8</v>
@@ -653,18 +852,6 @@
     <hyperlink ref="A3" r:id="rId6"/>
     <hyperlink ref="A4" r:id="rId7"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/src/com/SpiceTG/TestDataFiles/testNData.xlsx
+++ b/src/com/SpiceTG/TestDataFiles/testNData.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="30">
   <si>
     <t>Username</t>
   </si>
@@ -100,6 +100,12 @@
   </si>
   <si>
     <t>spice_12345</t>
+  </si>
+  <si>
+    <t>Login Status</t>
+  </si>
+  <si>
+    <t>UserName</t>
   </si>
 </sst>
 </file>
@@ -173,7 +179,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -187,6 +193,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -482,16 +491,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="26.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.140625" style="2" bestFit="1" customWidth="1"/>
@@ -499,178 +508,57 @@
     <col min="7" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:3">
+      <c r="A1" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="3" t="s">
+      <c r="C2" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B3" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="3" t="s">
+      <c r="C3" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="3" t="s">
         <v>21</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="3" t="s">
-        <v>22</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F8" s="4" t="s">
         <v>17</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1"/>
+    <hyperlink ref="A2" r:id="rId1"/>
     <hyperlink ref="A4" r:id="rId2"/>
-    <hyperlink ref="A5" r:id="rId3"/>
-    <hyperlink ref="A6" r:id="rId4"/>
-    <hyperlink ref="A7" r:id="rId5"/>
-    <hyperlink ref="A3" r:id="rId6"/>
-    <hyperlink ref="A8" r:id="rId7"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId8"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
